--- a/CHI.xlsx
+++ b/CHI.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsi\int\Python_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248942AC-8564-4146-8285-F92EC6FF76D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913F2A3-8AE7-41F6-934B-1C57D4556666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="12540" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_cchi" sheetId="1" r:id="rId1"/>
     <sheet name="clean_pyshk" sheetId="2" r:id="rId2"/>
     <sheet name="word" sheetId="3" r:id="rId3"/>
     <sheet name="KPI" sheetId="4" r:id="rId4"/>
+    <sheet name="KPI Краснодар" sheetId="5" r:id="rId5"/>
+    <sheet name="clean_krasnodar" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="98">
   <si>
     <t>Понедельник</t>
   </si>
@@ -219,13 +221,118 @@
   </si>
   <si>
     <t>ТЫ можешь больше, чем думаешь</t>
+  </si>
+  <si>
+    <t>Лао Ча Тоу</t>
+  </si>
+  <si>
+    <t>Габа Руби</t>
+  </si>
+  <si>
+    <t>Сян Пин Ван Жень Шень</t>
+  </si>
+  <si>
+    <t>Подача Чая</t>
+  </si>
+  <si>
+    <t>ДХП Монастырский</t>
+  </si>
+  <si>
+    <t>Гриб Мусульманин</t>
+  </si>
+  <si>
+    <t>Шу Волшебство</t>
+  </si>
+  <si>
+    <t>Пн.</t>
+  </si>
+  <si>
+    <t>Вт.</t>
+  </si>
+  <si>
+    <t>Ср.</t>
+  </si>
+  <si>
+    <t>Чт.</t>
+  </si>
+  <si>
+    <t>Пт.</t>
+  </si>
+  <si>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>Вс</t>
+  </si>
+  <si>
+    <t>Сварить вд</t>
+  </si>
+  <si>
+    <t>Проверка ценников и выкладка товара</t>
+  </si>
+  <si>
+    <t>Уборка санузла</t>
+  </si>
+  <si>
+    <t>Подмести пол магазина</t>
+  </si>
+  <si>
+    <t>Набрать воды</t>
+  </si>
+  <si>
+    <t>Проверка наполненности банок (чай, доп.товар)</t>
+  </si>
+  <si>
+    <t>Фасад магазина</t>
+  </si>
+  <si>
+    <t>Порядок в Холодильниках</t>
+  </si>
+  <si>
+    <t>Протереть монитор, телевизор, клаву, мышку.</t>
+  </si>
+  <si>
+    <t>Протереть полки магазина</t>
+  </si>
+  <si>
+    <t>Полить цветы</t>
+  </si>
+  <si>
+    <t>Уборка тайной комнаты</t>
+  </si>
+  <si>
+    <t>Протереть полки с чаем</t>
+  </si>
+  <si>
+    <t>Привести в порядок полки за баром</t>
+  </si>
+  <si>
+    <t>Привести склад в порядок</t>
+  </si>
+  <si>
+    <t>Выкладка и порядок на магазине</t>
+  </si>
+  <si>
+    <t>Пн. после 14:00</t>
+  </si>
+  <si>
+    <t>Вт. после 14:00</t>
+  </si>
+  <si>
+    <t>Ср. после 14:00</t>
+  </si>
+  <si>
+    <t>Чт. после 14:00</t>
+  </si>
+  <si>
+    <t>Пт. после 14:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,8 +380,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +401,14 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34A853"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -390,11 +510,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -423,6 +558,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -847,11 +987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5C4EA4-12ED-4DAB-8A97-BD662E464F9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1042,11 +1182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B458B326-C3C3-4038-BD37-A3EF84DDDB17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1075,12 +1215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F0C703-0FF6-4EC9-BF5B-3753B12589C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1137,4 +1275,404 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="36.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" customWidth="1"/>
+    <col min="12" max="12" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CHI.xlsx
+++ b/CHI.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsi\int\Python_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913F2A3-8AE7-41F6-934B-1C57D4556666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFB79D-1340-457A-9F51-008FCA50E209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="12540" windowWidth="21600" windowHeight="11505" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2475" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_cchi" sheetId="1" r:id="rId1"/>
     <sheet name="clean_pyshk" sheetId="2" r:id="rId2"/>
     <sheet name="word" sheetId="3" r:id="rId3"/>
     <sheet name="KPI" sheetId="4" r:id="rId4"/>
-    <sheet name="KPI Краснодар" sheetId="5" r:id="rId5"/>
+    <sheet name="KPI_Kras" sheetId="5" r:id="rId5"/>
     <sheet name="clean_krasnodar" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1281,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1345,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/CHI.xlsx
+++ b/CHI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vsi\int\Python_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BFB79D-1340-457A-9F51-008FCA50E209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D28B2A-BB7A-45D1-B018-12C189F65ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2475" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="8580" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clean_cchi" sheetId="1" r:id="rId1"/>
@@ -1281,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1343,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1364,311 +1364,310 @@
     <col min="12" max="12" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>97</v>
+      <c r="A2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K5" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>92</v>
-      </c>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="23"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>85</v>
-      </c>
       <c r="G9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="23" t="s">
         <v>88</v>
       </c>
     </row>
